--- a/biology/Médecine/Benjamin_Worsley/Benjamin_Worsley.xlsx
+++ b/biology/Médecine/Benjamin_Worsley/Benjamin_Worsley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benjamin Worsley (1618-1673) était un expérimentateur et médecin anglais, Surveyor-General d'Irlande et figure intellectuelle du Commonwealth. Il étudia au Trinity College de Dublin mais ne semble pas y avoir été diplômé[1].
-Il est l'auteur d'écrits alchimiques, acolyte de Robert Boyle et connaissait George Starkey à partir de 1650. Il est pour certains une figure majeure de l'Invisible College des années 1640[2].
-Worsley est associé au « Cercle » de Samuel Hartlib et John Dury, et rendit visite de leur part à Johann Rudolf Glauber[3] en 1648-9. Worsley suivaient les théories de Michael Sendivogius et Clovis Hesteau de Nuysement. Plus tard, probablement vers le milieu des années 1650, il écrivit De nitro theses quaedam[4]. Il s'intéressa également à la transmutation alchimique en compagnie de Johann Moriaen et Johann Siberius Kuffler[5]. 
-Il était également probablement hétérodoxe en matière religieuse[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benjamin Worsley (1618-1673) était un expérimentateur et médecin anglais, Surveyor-General d'Irlande et figure intellectuelle du Commonwealth. Il étudia au Trinity College de Dublin mais ne semble pas y avoir été diplômé.
+Il est l'auteur d'écrits alchimiques, acolyte de Robert Boyle et connaissait George Starkey à partir de 1650. Il est pour certains une figure majeure de l'Invisible College des années 1640.
+Worsley est associé au « Cercle » de Samuel Hartlib et John Dury, et rendit visite de leur part à Johann Rudolf Glauber en 1648-9. Worsley suivaient les théories de Michael Sendivogius et Clovis Hesteau de Nuysement. Plus tard, probablement vers le milieu des années 1650, il écrivit De nitro theses quaedam. Il s'intéressa également à la transmutation alchimique en compagnie de Johann Moriaen et Johann Siberius Kuffler. 
+Il était également probablement hétérodoxe en matière religieuse.
 </t>
         </is>
       </c>
